--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1597710.24035109</v>
+        <v>1590364.263461426</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2083705.798332965</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1702443.552109825</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10628372.86897383</v>
+        <v>10845187.75981517</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>146.8527136345499</v>
+        <v>227.6599794570911</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933841</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>38.8509979633869</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>155.3197306044664</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>341.128721020107</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>140.9971593390836</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>123.5991880687408</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>28.51033041214364</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>171.7574281954095</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>200.2552154655731</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>196.7218456862862</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>179.7188787253433</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664348</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958678</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183531</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>106.5654198538158</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>17.78458198347562</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>213.9189633675417</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664348</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958678</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183531</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>218.3308283778002</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>101.1634376464991</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>76.27978370493993</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>198.8019470340529</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>20.65877328540132</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2298,13 +2298,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>33.35146980185944</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2335,10 +2335,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>235.7185238913816</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>115.5269768002174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>124.0193933310472</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2733,7 +2733,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>110.1327010670971</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>97.24018360678578</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -2970,7 +2970,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>138.3775845601132</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9606397709136</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>130.1638582976897</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.5906791667248</v>
+        <v>178.0344873527949</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3681,7 +3681,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>122.4824106445302</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4143,13 +4143,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>72.28838306458734</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>191.2952892163686</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1964.838184214438</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C2" t="n">
-        <v>1595.875667274027</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,10 +4348,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>2317.606839484552</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="W2" t="n">
-        <v>1964.838184214438</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="X2" t="n">
-        <v>1964.838184214438</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="Y2" t="n">
-        <v>1964.838184214438</v>
+        <v>1763.586886263858</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>550.5654064942401</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D4" t="n">
-        <v>550.5654064942401</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E4" t="n">
-        <v>550.5654064942401</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>550.5654064942401</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>962.9693282917581</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="C5" t="n">
-        <v>962.9693282917581</v>
+        <v>575.4989583075089</v>
       </c>
       <c r="D5" t="n">
-        <v>962.9693282917581</v>
+        <v>217.2332597007584</v>
       </c>
       <c r="E5" t="n">
-        <v>962.9693282917581</v>
+        <v>217.2332597007584</v>
       </c>
       <c r="F5" t="n">
-        <v>551.9834235021506</v>
+        <v>210.287758951555</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>196.3643548901459</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.56916835588</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C7" t="n">
-        <v>529.7758821321493</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D7" t="n">
-        <v>529.7758821321493</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>529.7758821321493</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>529.7758821321493</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>360.7760818704817</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>699.3306706588146</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1387.069036214947</v>
+        <v>770.969123535386</v>
       </c>
       <c r="C8" t="n">
-        <v>1018.106519274536</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2468.628049836181</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2468.628049836181</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2214.866264474272</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1883.803377130702</v>
       </c>
       <c r="W8" t="n">
-        <v>2163.808208254881</v>
+        <v>1531.034721860588</v>
       </c>
       <c r="X8" t="n">
-        <v>2163.808208254881</v>
+        <v>1157.568963599508</v>
       </c>
       <c r="Y8" t="n">
-        <v>1773.668876279069</v>
+        <v>1157.568963599508</v>
       </c>
     </row>
     <row r="9">
@@ -4886,10 +4886,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>529.4200491697815</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>529.4200491697815</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>529.4200491697815</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2196.616170759897</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>1827.653653819485</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1469.387955212735</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1083.599702614491</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>672.6137978248832</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>255.5260160613107</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>73.9917951266205</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403561</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>666.0988071604011</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>2477.937544449755</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3025.098749216832</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>3699.589756331025</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>3699.589756331025</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>3699.589756331025</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>3699.589756331025</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>3699.589756331025</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3699.589756331025</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3346.821101060911</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>2973.355342799831</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2583.216010824019</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>192.6510469835158</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>522.0794512893251</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1026.440991155443</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1253.562877620961</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N12" t="n">
-        <v>1452.219619273625</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O12" t="n">
-        <v>2001.655628026347</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2425.623396507183</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1073.926476585963</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>966.2846383497852</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>816.1679989374494</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>668.2549053550563</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>521.3649578571459</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>352.7581128525293</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>198.5034697522943</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>73.9917951266205</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>175.03972472223</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>359.8727196230479</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422854</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783893</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>945.0605805669878</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1070.508157165603</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1073.926476585963</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1073.926476585963</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1073.926476585963</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>1073.926476585963</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W13" t="n">
-        <v>1073.926476585963</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X13" t="n">
-        <v>1073.926476585963</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y13" t="n">
-        <v>1073.926476585963</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2333.305065052698</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>1964.342548112286</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1606.076849505535</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1220.288596907291</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>809.3026921176836</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>392.2149103541111</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>73.99179512662052</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>73.99179512662052</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403566</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>666.0988071604011</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449755</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216832</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.413795556126</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.589756331026</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.589756331026</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>3699.589756331026</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>3699.589756331026</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>3699.589756331026</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3699.589756331026</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3483.509995353711</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3110.044237092631</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2719.904905116819</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>73.99179512662052</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>192.6510469835159</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>522.0794512893251</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1026.440991155443</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1205.938327510047</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1452.219619273625</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.655628026347</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2425.623396507183</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>242.5986401312371</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="C16" t="n">
-        <v>242.5986401312371</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D16" t="n">
-        <v>242.5986401312371</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E16" t="n">
-        <v>242.5986401312371</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F16" t="n">
-        <v>242.5986401312371</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>73.99179512662052</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>73.99179512662052</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>73.99179512662052</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>73.99179512662052</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>175.03972472223</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>359.8727196230479</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422854</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783893</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669878</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165603</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>943.4485153053654</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>943.4485153053654</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>717.8193186177303</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>497.283128337124</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>242.5986401312371</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="W16" t="n">
-        <v>242.5986401312371</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="X16" t="n">
-        <v>242.5986401312371</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="Y16" t="n">
-        <v>242.5986401312371</v>
+        <v>973.0255547109412</v>
       </c>
     </row>
     <row r="17">
@@ -5512,37 +5512,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>324.384017443268</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C19" t="n">
-        <v>324.384017443268</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D19" t="n">
-        <v>174.2673780309323</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.106223048758</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557903</v>
+        <v>1008.977584262316</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352016</v>
+        <v>1008.977584262316</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150552</v>
+        <v>1008.977584262316</v>
       </c>
       <c r="X19" t="n">
-        <v>726.8250614170379</v>
+        <v>780.9880333642989</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.0324822735078</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,22 +5764,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701563</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619849</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916676</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916676</v>
+        <v>527.6488635960989</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916676</v>
+        <v>377.5322241837631</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>229.61913060137</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>229.61913060137</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.859459491671</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>4036.945405494735</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>3782.260917288848</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W22" t="n">
-        <v>3492.843747251887</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X22" t="n">
-        <v>3459.155393916676</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916676</v>
+        <v>696.5850465240057</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6010,31 +6010,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6083,10 +6083,10 @@
         <v>1925.508393158044</v>
       </c>
       <c r="O24" t="n">
-        <v>2205.048458376741</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2410.070939158951</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916677</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916677</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916677</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916677</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916677</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4637.069157803799</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>4347.940519017357</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V25" t="n">
-        <v>4093.25603081147</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="W25" t="n">
-        <v>3803.838860774509</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="X25" t="n">
-        <v>3575.849309876492</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916677</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,19 +6238,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4036.173262924874</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="C28" t="n">
-        <v>4036.173262924874</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D28" t="n">
-        <v>4036.173262924874</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E28" t="n">
-        <v>4036.173262924874</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426963</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746784</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4438.614306898643</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>4438.614306898643</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>4438.614306898643</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W28" t="n">
-        <v>4438.614306898643</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X28" t="n">
-        <v>4438.614306898643</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="Y28" t="n">
-        <v>4217.821727755113</v>
+        <v>986.0022165609664</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>920.3704617344999</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="C31" t="n">
-        <v>920.3704617344999</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1248.065829180219</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1024.280413969725</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>1024.280413969725</v>
       </c>
       <c r="V31" t="n">
-        <v>1209.787631771461</v>
+        <v>1024.280413969725</v>
       </c>
       <c r="W31" t="n">
-        <v>920.3704617344999</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="X31" t="n">
-        <v>920.3704617344999</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="Y31" t="n">
-        <v>920.3704617344999</v>
+        <v>734.8632439327646</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,40 +6685,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>247.6350999123426</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C34" t="n">
-        <v>247.6350999123426</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D34" t="n">
-        <v>247.6350999123426</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>675.0071030383442</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324574</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>247.6350999123426</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>247.6350999123426</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>247.6350999123426</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,22 +6922,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514081</v>
@@ -6949,37 +6949,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>841.7907383782456</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C37" t="n">
-        <v>710.3120936331045</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D37" t="n">
-        <v>560.1954542207687</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E37" t="n">
-        <v>412.2823606383756</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>1244.231782352015</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>1244.231782352015</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>1023.439203208485</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7259,19 +7259,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1141.200876391121</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C40" t="n">
-        <v>972.2646934632137</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D40" t="n">
-        <v>822.1480540508779</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W40" t="n">
-        <v>1275.130855347408</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X40" t="n">
-        <v>1275.130855347408</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y40" t="n">
-        <v>1275.130855347408</v>
+        <v>1209.499100520942</v>
       </c>
     </row>
     <row r="41">
@@ -7393,43 +7393,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>795.449652310468</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C43" t="n">
-        <v>795.449652310468</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D43" t="n">
-        <v>795.449652310468</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E43" t="n">
-        <v>647.5365587280749</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F43" t="n">
-        <v>500.6466112301645</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>332.471289549985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>1244.231782352015</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>1016.242231453998</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>795.449652310468</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="44">
@@ -7657,19 +7657,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>564.1830073829216</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C46" t="n">
-        <v>395.2468244550147</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1425.897701805794</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1202.1122865953</v>
       </c>
       <c r="U46" t="n">
-        <v>1387.841167119728</v>
+        <v>912.983647808858</v>
       </c>
       <c r="V46" t="n">
-        <v>1387.841167119728</v>
+        <v>912.983647808858</v>
       </c>
       <c r="W46" t="n">
-        <v>1194.613602254709</v>
+        <v>912.983647808858</v>
       </c>
       <c r="X46" t="n">
-        <v>966.6240513566914</v>
+        <v>912.983647808858</v>
       </c>
       <c r="Y46" t="n">
-        <v>745.8314722131613</v>
+        <v>912.983647808858</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>48.10560617264085</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>48.10560617264096</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>96.0374492781458</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>127.646125010065</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>414.5002179180839</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>135.3220053498723</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>60.68140124481202</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176918</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677914</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>200.8000713686192</v>
       </c>
     </row>
     <row r="14">
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>135.3220053498713</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23655,28 +23655,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176918</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>67.92982628029677</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>150.9742056773289</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>70.15417894162924</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23943,16 +23943,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>22.74561402433631</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>145.8347951779763</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>192.3581855871777</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>16.41911943244642</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>103.0576765518774</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>43.22742776758068</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>111.4148599912922</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>51.37528941142658</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>59.54322542349004</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>115.5623585656774</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>37.08296280093816</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>50.96659166315997</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25365,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.24130101521254</v>
+        <v>1.797492829142385</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>26.43141772300591</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26031,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>125.6324269190159</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>95.22770912022236</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801712.5440420802</v>
+        <v>926047.2283490476</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801712.5440420803</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>926047.2283490477</v>
+        <v>926047.2283490478</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>926047.2283490477</v>
+        <v>926047.2283490478</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>926047.2283490477</v>
+        <v>926047.2283490476</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>926047.2283490478</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>926047.2283490476</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>926047.2283490477</v>
+        <v>926047.2283490476</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>926047.2283490478</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
         <v>472099.017671963</v>
@@ -26322,13 +26322,13 @@
         <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>388396.0040473217</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="F2" t="n">
-        <v>388396.0040473217</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="G2" t="n">
-        <v>449683.4186983654</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="H2" t="n">
         <v>449683.4186983653</v>
@@ -26337,7 +26337,7 @@
         <v>449683.4186983652</v>
       </c>
       <c r="J2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="K2" t="n">
         <v>449683.4186983653</v>
@@ -26349,7 +26349,7 @@
         <v>449683.4186983652</v>
       </c>
       <c r="N2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="O2" t="n">
         <v>449683.4186983652</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>248146.7686188426</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>263762.8892659107</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62453.05588965292</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>69864.88484991129</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26426,31 +26426,31 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>8673.279618076551</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>8673.279618076551</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
         <v>7916.731656007484</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>69171.54328360136</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>69171.54328360138</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26499,16 +26499,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-348644.9883219117</v>
+        <v>-348644.988321912</v>
       </c>
       <c r="C6" t="n">
         <v>241322.8908926327</v>
@@ -26530,40 +26530,40 @@
         <v>241322.8908926326</v>
       </c>
       <c r="E6" t="n">
-        <v>62404.41252680113</v>
+        <v>-176355.2666429766</v>
       </c>
       <c r="F6" t="n">
-        <v>310551.1811456437</v>
+        <v>348804.7698339194</v>
       </c>
       <c r="G6" t="n">
-        <v>86016.47182773054</v>
+        <v>348804.7698339196</v>
       </c>
       <c r="H6" t="n">
-        <v>349779.3610936412</v>
+        <v>348804.7698339195</v>
       </c>
       <c r="I6" t="n">
-        <v>349779.3610936413</v>
+        <v>348804.7698339195</v>
       </c>
       <c r="J6" t="n">
-        <v>173356.1419010482</v>
+        <v>172381.5506413266</v>
       </c>
       <c r="K6" t="n">
-        <v>349779.3610936413</v>
+        <v>348804.7698339195</v>
       </c>
       <c r="L6" t="n">
-        <v>349779.3610936413</v>
+        <v>348804.7698339195</v>
       </c>
       <c r="M6" t="n">
-        <v>287326.3052039882</v>
+        <v>214003.7546000823</v>
       </c>
       <c r="N6" t="n">
-        <v>349779.3610936413</v>
+        <v>348804.7698339194</v>
       </c>
       <c r="O6" t="n">
-        <v>279914.4762437298</v>
+        <v>348804.7698339195</v>
       </c>
       <c r="P6" t="n">
-        <v>349779.3610936413</v>
+        <v>348804.7698339196</v>
       </c>
     </row>
   </sheetData>
@@ -26737,46 +26737,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380635</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380635</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26798,13 +26798,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>924.8974390827563</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>924.8974390827565</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215.7324361209768</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>236.9063051160371</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>250.6101663282006</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>290.3162041708171</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282006</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708171</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282006</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708171</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>180.899544835585</v>
+        <v>100.0922790130438</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11.99007165458451</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>72.65544900068801</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>182.9256134252736</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>32.57170077305435</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>190.0743229399511</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>2.658284613562017</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>148.9857532518399</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>15.4236932637327</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.385833569198244</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055151</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651536</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>303.4869768779013</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>376.5024309712521</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>418.9314987074814</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>425.7102483359659</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822508</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>343.0858495426692</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.643184845757</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810503</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>10.44398644916532</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>43.95082441182829</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>120.604421484738</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>206.1321659070423</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>277.1701353512815</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842445</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>332.0050874900644</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>303.7197925947069</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671567</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>162.9483813607453</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080783</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>23.7110498578462</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308303</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>9.515075838206991</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784122</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490359</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>124.3381075790238</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>159.1099695889949</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676922</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>163.7702163441087</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714133</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.61489115104759</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937805</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522782</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198244</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055151</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651536</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779013</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712521</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074814</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>425.7102483359659</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822508</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426692</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.643184845757</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810503</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916532</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>43.95082441182829</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>120.604421484738</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070423</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512815</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842445</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900644</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947069</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671567</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607453</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080783</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>23.7110498578462</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308303</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838206991</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784122</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490359</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790238</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889949</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676922</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441087</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714133</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.61489115104759</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937805</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522782</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5453525391271</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>407.5425384040855</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517153</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730411</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513591</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233095</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588823</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312122</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.8578301584801</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>332.7559639452619</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748665</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>229.4160469348671</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>200.6633754067311</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269919</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927636</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>233.0438950105729</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>186.6999948493111</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295328</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>207.9023887233373</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>175.853429685453</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7147238369852</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353202</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391271</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040855</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517153</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730411</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513591</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233095</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588823</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312122</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8578301584801</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452619</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748665</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>181.3104407622262</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>248.7689815793721</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269919</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927636</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105729</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493111</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295328</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233373</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>175.853429685453</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369852</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353202</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>345.2951542341702</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>410.0098272511731</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>215.6591577951388</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>747.6947913160968</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37627,7 +37627,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>429.2814066296117</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37639,10 +37639,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1590364.263461426</v>
+        <v>1595303.526310457</v>
       </c>
     </row>
     <row r="7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,13 +718,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>227.6599794570911</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>270.6226856612333</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933841</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>38.8509979633869</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,13 +834,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>112.9856999467122</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>140.9971593390836</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>22.98569063694827</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>28.51033041214364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>82.59957183215474</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
-        <v>171.7574281954095</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>30.60408762095373</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544559</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274077</v>
@@ -1426,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>150.332960975167</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.78458198347562</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>43.03801681746327</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>101.1634376464991</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>100.9403049819701</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>198.8019470340529</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>20.65877328540132</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>113.8609283767134</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>235.7185238913816</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>124.0193933310472</v>
+        <v>102.2541037431228</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,7 +2730,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>138.3775845601132</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>20.05049081032978</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>198.778491872618</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>178.0344873527949</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>115.5269768002176</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>41.05258023887743</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>72.28838306458734</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>195.5559609429028</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1763.586886263858</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
         <v>1036.358670716696</v>
@@ -4327,31 +4327,31 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1763.586886263858</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1763.586886263858</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1763.586886263858</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="Y2" t="n">
-        <v>1763.586886263858</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961344</v>
@@ -4406,46 +4406,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785276</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661918</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>944.4614752479206</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="C5" t="n">
-        <v>575.4989583075089</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>217.2332597007584</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>217.2332597007584</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>210.287758951555</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>196.3643548901459</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y5" t="n">
-        <v>1331.061315312042</v>
+        <v>1894.539591564834</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.6822058285749</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>348.7460229006679</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.3306706588146</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>770.969123535386</v>
+        <v>2079.343073798762</v>
       </c>
       <c r="C8" t="n">
-        <v>402.0066065949742</v>
+        <v>1710.38055685835</v>
       </c>
       <c r="D8" t="n">
-        <v>402.0066065949742</v>
+        <v>1352.1148582516</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949742</v>
+        <v>966.3266056533555</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>555.340700863748</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>137.3768927619349</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>137.3768927619349</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224067</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977173</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="S8" t="n">
-        <v>2468.628049836181</v>
+        <v>2465.942913862884</v>
       </c>
       <c r="T8" t="n">
-        <v>2468.628049836181</v>
+        <v>2465.942913862884</v>
       </c>
       <c r="U8" t="n">
-        <v>2214.866264474272</v>
+        <v>2465.942913862884</v>
       </c>
       <c r="V8" t="n">
-        <v>1883.803377130702</v>
+        <v>2465.942913862884</v>
       </c>
       <c r="W8" t="n">
-        <v>1531.034721860588</v>
+        <v>2465.942913862884</v>
       </c>
       <c r="X8" t="n">
-        <v>1157.568963599508</v>
+        <v>2465.942913862884</v>
       </c>
       <c r="Y8" t="n">
-        <v>1157.568963599508</v>
+        <v>2465.942913862884</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572642</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050018</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600557</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,19 +5041,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5126,16 +5126,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977053</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641086</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>266.1532743881928</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V13" t="n">
-        <v>755.183133481126</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W13" t="n">
-        <v>465.7659634441654</v>
+        <v>1012.204276176742</v>
       </c>
       <c r="X13" t="n">
-        <v>465.7659634441654</v>
+        <v>784.2147252787242</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.8017392184324</v>
+        <v>563.4221461351941</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5278,16 +5278,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>973.0255547109412</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C16" t="n">
-        <v>804.0893717830343</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="D16" t="n">
-        <v>653.9727323706985</v>
+        <v>287.5797832182601</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883054</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>973.0255547109412</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>973.0255547109412</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>973.0255547109412</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y16" t="n">
-        <v>973.0255547109412</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="17">
@@ -5515,16 +5515,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.1954542207687</v>
+        <v>879.5496456007323</v>
       </c>
       <c r="C19" t="n">
-        <v>560.1954542207687</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D19" t="n">
-        <v>560.1954542207687</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5703,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.106223048758</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1008.977584262316</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>1008.977584262316</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W19" t="n">
-        <v>1008.977584262316</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X19" t="n">
-        <v>780.9880333642989</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y19" t="n">
-        <v>560.1954542207687</v>
+        <v>981.5095496229244</v>
       </c>
     </row>
     <row r="20">
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.5850465240057</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="C22" t="n">
-        <v>527.6488635960989</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D22" t="n">
-        <v>377.5322241837631</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E22" t="n">
-        <v>229.61913060137</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F22" t="n">
-        <v>229.61913060137</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>986.0022165609664</v>
+        <v>1072.910118270923</v>
       </c>
       <c r="W22" t="n">
-        <v>696.5850465240057</v>
+        <v>783.4929482339625</v>
       </c>
       <c r="X22" t="n">
-        <v>696.5850465240057</v>
+        <v>783.4929482339625</v>
       </c>
       <c r="Y22" t="n">
-        <v>696.5850465240057</v>
+        <v>562.7003690904323</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5992,16 +5992,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6074,19 +6074,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1925.508393158044</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>879.2482765610114</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C25" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>1060.896741391251</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>1060.896741391251</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>1060.896741391251</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y25" t="n">
-        <v>1060.896741391251</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="26">
@@ -6205,52 +6205,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6323,7 +6323,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>986.0022165609664</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C28" t="n">
-        <v>860.7301020851612</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D28" t="n">
-        <v>710.6134626728254</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7003690904323</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>986.0022165609664</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>986.0022165609664</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>986.0022165609664</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y28" t="n">
-        <v>986.0022165609664</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="29">
@@ -6457,7 +6457,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6466,13 +6466,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6481,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6490,7 +6490,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6542,13 +6542,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643586</v>
@@ -6560,7 +6560,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262063</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.8632439327646</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C31" t="n">
-        <v>565.9270610048577</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D31" t="n">
-        <v>415.8104215925219</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E31" t="n">
-        <v>415.8104215925219</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6624,19 +6624,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
@@ -6648,25 +6648,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1248.065829180219</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1024.280413969725</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U31" t="n">
-        <v>1024.280413969725</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V31" t="n">
-        <v>1024.280413969725</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W31" t="n">
-        <v>734.8632439327646</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="X31" t="n">
-        <v>734.8632439327646</v>
+        <v>912.983647808858</v>
       </c>
       <c r="Y31" t="n">
-        <v>734.8632439327646</v>
+        <v>912.983647808858</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
@@ -6688,25 +6688,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515098</v>
@@ -6715,37 +6715,37 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>213.9110074201016</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C34" t="n">
-        <v>213.9110074201016</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D34" t="n">
-        <v>213.9110074201016</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X34" t="n">
-        <v>213.9110074201016</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.9110074201016</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,25 +6922,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,31 +6955,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,28 +7004,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7162,25 +7162,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7365,19 +7365,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>1209.499100520942</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.499100520942</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y40" t="n">
-        <v>1209.499100520942</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7411,16 +7411,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
         <v>3183.709822619127</v>
@@ -7429,7 +7429,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>213.9110074201016</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="C43" t="n">
-        <v>213.9110074201016</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D43" t="n">
-        <v>213.9110074201016</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E43" t="n">
-        <v>213.9110074201016</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>213.9110074201016</v>
+        <v>913.3473595485119</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.9110074201016</v>
+        <v>692.5547804049818</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822458</v>
@@ -7648,13 +7648,13 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>731.3351829786183</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C46" t="n">
-        <v>562.3990000507114</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D46" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1425.897701805794</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1202.1122865953</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>912.983647808858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>912.983647808858</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>912.983647808858</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X46" t="n">
-        <v>912.983647808858</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y46" t="n">
-        <v>912.983647808858</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747314</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,19 +8774,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>52.49733361305277</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>15.83804904622903</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>127.646125010065</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735881</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>136.190037361424</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>200.8000713686192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>103.3959458291059</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9742056773289</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>78.89167519996717</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23943,22 +23943,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>22.74561402433631</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>145.8347951779763</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>138.2767149471146</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>48.75693659211572</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>16.41911943244642</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,13 +24603,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>43.22742776758068</v>
+        <v>64.99271735550504</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24654,16 +24654,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,22 +24888,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>59.54322542349004</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>205.6591645787074</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>30.90698584635157</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25128,7 +25128,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>26.93116351641916</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>64.3050033817197</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>50.96659166315997</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.797492829142385</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25605,19 +25605,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,19 +25791,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>29.89407122271365</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25839,10 +25839,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>184.6570751501597</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>125.6324269190159</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>90.96703739368823</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>926047.2283490476</v>
+        <v>926047.2283490479</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>926047.2283490478</v>
+        <v>926047.2283490476</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>926047.2283490478</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>926047.2283490476</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>926047.2283490476</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
     <row r="15">
@@ -26316,7 +26316,7 @@
         <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719629</v>
@@ -26325,22 +26325,22 @@
         <v>449683.4186983652</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="G2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="H2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.418698365</v>
       </c>
       <c r="I2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="J2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="K2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.418698365</v>
       </c>
       <c r="L2" t="n">
         <v>449683.4186983653</v>
@@ -26355,7 +26355,7 @@
         <v>449683.4186983652</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007483</v>
@@ -26435,28 +26435,28 @@
         <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="L4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="P4" t="n">
         <v>7916.731656007484</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26493,25 +26493,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-348644.988321912</v>
+        <v>-348644.9883219118</v>
       </c>
       <c r="C6" t="n">
-        <v>241322.8908926327</v>
+        <v>241322.8908926325</v>
       </c>
       <c r="D6" t="n">
-        <v>241322.8908926326</v>
+        <v>241322.8908926328</v>
       </c>
       <c r="E6" t="n">
-        <v>-176355.2666429766</v>
+        <v>-175478.1345092276</v>
       </c>
       <c r="F6" t="n">
-        <v>348804.7698339194</v>
+        <v>349681.9019676689</v>
       </c>
       <c r="G6" t="n">
-        <v>348804.7698339196</v>
+        <v>349681.9019676691</v>
       </c>
       <c r="H6" t="n">
-        <v>348804.7698339195</v>
+        <v>349681.9019676688</v>
       </c>
       <c r="I6" t="n">
-        <v>348804.7698339195</v>
+        <v>349681.901967669</v>
       </c>
       <c r="J6" t="n">
-        <v>172381.5506413266</v>
+        <v>173258.682775076</v>
       </c>
       <c r="K6" t="n">
-        <v>348804.7698339195</v>
+        <v>349681.9019676688</v>
       </c>
       <c r="L6" t="n">
-        <v>348804.7698339195</v>
+        <v>349681.9019676688</v>
       </c>
       <c r="M6" t="n">
-        <v>214003.7546000823</v>
+        <v>214880.8867338318</v>
       </c>
       <c r="N6" t="n">
-        <v>348804.7698339194</v>
+        <v>349681.901967669</v>
       </c>
       <c r="O6" t="n">
-        <v>348804.7698339195</v>
+        <v>349681.9019676688</v>
       </c>
       <c r="P6" t="n">
-        <v>348804.7698339196</v>
+        <v>349681.901967669</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26764,22 +26764,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>100.0922790130438</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>99.1084150172357</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>107.5829646831823</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>252.2871918242953</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>182.9256134252736</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>125.6297823812641</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.0743229399511</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>69.33174441270657</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.658284613562017</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>149.2278925609836</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831822</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -33183,40 +33183,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,10 +33256,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
@@ -33268,7 +33268,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724845</v>
@@ -33277,10 +33277,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33292,7 +33292,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33356,7 +33356,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33368,10 +33368,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770683</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535805</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>334.8610358541609</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>222.9314639777537</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35980,10 +35980,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36451,13 +36451,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>410.0098272511731</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36691,10 +36691,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299105</v>
@@ -36998,7 +36998,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
